--- a/xls/配置索引表.xlsx
+++ b/xls/配置索引表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="索引表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>shopConfig.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>装备配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formationConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,8 +734,12 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>

--- a/xls/配置索引表.xlsx
+++ b/xls/配置索引表.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="索引表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>shopConfig.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽卡配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lotteryConfig.xlsx</t>
   </si>
   <si>
@@ -108,6 +104,32 @@
   </si>
   <si>
     <t>阵型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloneConfig</t>
+  </si>
+  <si>
+    <t>副本表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initCardConfig</t>
+  </si>
+  <si>
+    <t>cardsConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化球员表，送的球员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币商城配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,74 +197,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,14 +209,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -297,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,15 +518,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="3"/>
       <c r="E3" s="6"/>
@@ -590,10 +544,10 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="6"/>
@@ -604,10 +558,10 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="6"/>
@@ -618,10 +572,10 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="6"/>
@@ -632,10 +586,10 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="6"/>
@@ -646,10 +600,10 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="6"/>
@@ -660,10 +614,10 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="E10" s="6"/>
@@ -683,10 +637,10 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C12" s="3"/>
       <c r="E12" s="6"/>
@@ -697,10 +651,10 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="6"/>
@@ -711,10 +665,10 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
@@ -735,10 +689,10 @@
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C16" s="3"/>
       <c r="E16" s="6"/>
@@ -748,14 +702,34 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/配置索引表.xlsx
+++ b/xls/配置索引表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>shopConfig.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,49 @@
   </si>
   <si>
     <t>货币商城配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardLevelUpgradeConfig</t>
+  </si>
+  <si>
+    <t>InheritConfig</t>
+  </si>
+  <si>
+    <t>球员传承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球员升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MentalityUpMax</t>
+  </si>
+  <si>
+    <t>球员意识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerConfig</t>
+  </si>
+  <si>
+    <t>球员能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球员进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strikeConfig</t>
+  </si>
+  <si>
+    <t>球员突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -251,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,6 +772,54 @@
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/xls/配置索引表.xlsx
+++ b/xls/配置索引表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="索引表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>聊天配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,122 @@
   </si>
   <si>
     <t>球员突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单属性公共配置</t>
+  </si>
+  <si>
+    <t>CommonConfig</t>
+  </si>
+  <si>
+    <t>ClothesConfig</t>
+  </si>
+  <si>
+    <t>时装配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClothesLevelConfig</t>
+  </si>
+  <si>
+    <t>时装强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClothesSlevelConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClothesInheritConfig</t>
+  </si>
+  <si>
+    <t>时装传承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BabyLikingStarConfig</t>
+  </si>
+  <si>
+    <t>足球宝贝好感度星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BabyTouchItemConfig</t>
+  </si>
+  <si>
+    <t>足球宝贝抚摸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseEquipConfig</t>
+  </si>
+  <si>
+    <t>装备用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillConfig.xlsx</t>
+  </si>
+  <si>
+    <t>effectConfig.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bufferConfig.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装图鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClothesMapConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameShopConfig</t>
+  </si>
+  <si>
+    <t>游戏商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillMainConfig</t>
+  </si>
+  <si>
+    <t>主技能配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子技能主配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaConfig</t>
+  </si>
+  <si>
+    <t>竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,74 +485,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -456,7 +504,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -735,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,10 +1210,132 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/配置索引表.xlsx
+++ b/xls/配置索引表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>聊天配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场排行奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ArenaConfig</t>
-  </si>
-  <si>
-    <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildShopConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLevelConfig</t>
+  </si>
+  <si>
+    <t>技能等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1331,10 +1363,42 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
         <v>102</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/xls/配置索引表.xlsx
+++ b/xls/配置索引表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="索引表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>聊天配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,39 @@
   </si>
   <si>
     <t>技能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoreConfig</t>
+  </si>
+  <si>
+    <t>净球数排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officialConfig</t>
+  </si>
+  <si>
+    <t>官员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officialPermissionConfig</t>
+  </si>
+  <si>
+    <t>官权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkillMainConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkillConfig.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,6 +550,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -536,7 +637,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -815,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,44 +1462,92 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" t="s">
-        <v>104</v>
+    <row r="57" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" t="s">
-        <v>107</v>
-      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" t="s">
-        <v>109</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>110</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
